--- a/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H2">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N2">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q2">
-        <v>373.5736342348346</v>
+        <v>1030.949462027102</v>
       </c>
       <c r="R2">
-        <v>373.5736342348346</v>
+        <v>9278.54515824392</v>
       </c>
       <c r="S2">
-        <v>0.1521675350099458</v>
+        <v>0.2614799557576807</v>
       </c>
       <c r="T2">
-        <v>0.1521675350099458</v>
+        <v>0.2614799557576808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H3">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N3">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q3">
-        <v>431.5983931902033</v>
+        <v>1016.121395045236</v>
       </c>
       <c r="R3">
-        <v>431.5983931902033</v>
+        <v>9145.09255540712</v>
       </c>
       <c r="S3">
-        <v>0.1758027269256429</v>
+        <v>0.2577191096238977</v>
       </c>
       <c r="T3">
-        <v>0.1758027269256429</v>
+        <v>0.2577191096238977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H4">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N4">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q4">
-        <v>62.74468926012094</v>
+        <v>151.6670500990378</v>
       </c>
       <c r="R4">
-        <v>62.74468926012094</v>
+        <v>1365.00345089134</v>
       </c>
       <c r="S4">
-        <v>0.02555775843023167</v>
+        <v>0.03846734976884036</v>
       </c>
       <c r="T4">
-        <v>0.02555775843023167</v>
+        <v>0.03846734976884036</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H5">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N5">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q5">
-        <v>384.630111736937</v>
+        <v>461.470853230196</v>
       </c>
       <c r="R5">
-        <v>384.630111736937</v>
+        <v>4153.237679071764</v>
       </c>
       <c r="S5">
-        <v>0.1566711636743024</v>
+        <v>0.1170429615907969</v>
       </c>
       <c r="T5">
-        <v>0.1566711636743024</v>
+        <v>0.1170429615907969</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H6">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N6">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q6">
-        <v>444.3722013151399</v>
+        <v>454.8335533683559</v>
       </c>
       <c r="R6">
-        <v>444.3722013151399</v>
+        <v>4093.501980315204</v>
       </c>
       <c r="S6">
-        <v>0.1810058748914861</v>
+        <v>0.1153595416578625</v>
       </c>
       <c r="T6">
-        <v>0.1810058748914861</v>
+        <v>0.1153595416578625</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H7">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N7">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q7">
-        <v>64.60171336890706</v>
+        <v>67.88880114306698</v>
       </c>
       <c r="R7">
-        <v>64.60171336890706</v>
+        <v>610.999210287603</v>
       </c>
       <c r="S7">
-        <v>0.0263141789995441</v>
+        <v>0.01721865268199197</v>
       </c>
       <c r="T7">
-        <v>0.0263141789995441</v>
+        <v>0.01721865268199197</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H8">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N8">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q8">
-        <v>298.4978808137703</v>
+        <v>356.2645508539688</v>
       </c>
       <c r="R8">
-        <v>298.4978808137703</v>
+        <v>3206.38095768572</v>
       </c>
       <c r="S8">
-        <v>0.1215869712597844</v>
+        <v>0.09035946224964114</v>
       </c>
       <c r="T8">
-        <v>0.1215869712597844</v>
+        <v>0.09035946224964116</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H9">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N9">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q9">
-        <v>344.8616120722231</v>
+        <v>351.1404251641022</v>
       </c>
       <c r="R9">
-        <v>344.8616120722231</v>
+        <v>3160.26382647692</v>
       </c>
       <c r="S9">
-        <v>0.1404722834256515</v>
+        <v>0.0890598290396401</v>
       </c>
       <c r="T9">
-        <v>0.1404722834256515</v>
+        <v>0.08905982903964012</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H10">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N10">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q10">
-        <v>50.13511409825881</v>
+        <v>52.4114861815211</v>
       </c>
       <c r="R10">
-        <v>50.13511409825881</v>
+        <v>471.70337563369</v>
       </c>
       <c r="S10">
-        <v>0.02042150738341119</v>
+        <v>0.01329313762964858</v>
       </c>
       <c r="T10">
-        <v>0.02042150738341119</v>
+        <v>0.01329313762964858</v>
       </c>
     </row>
   </sheetData>
